--- a/2-simulation-and-optimization/optimization/unit-production.xlsx
+++ b/2-simulation-and-optimization/optimization/unit-production.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeM\Documents\GitHub\olt-advanced-statistics-for-business-analytics\simulation-and-optimization\optimization\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\olt-advanced-statistics-for-business-analytics\2-simulation-and-optimization\optimization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC5A8BEF-5A6F-4665-9378-FB116D0F3DFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{185919C8-0A16-4ED7-9CD6-94751955E7F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{EF4499F9-7AA9-4736-8AF4-8E65B8D04105}"/>
+    <workbookView xWindow="-25693" yWindow="-93" windowWidth="25786" windowHeight="13373" xr2:uid="{EF4499F9-7AA9-4736-8AF4-8E65B8D04105}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>Units produced</t>
   </si>
@@ -110,6 +110,12 @@
   </si>
   <si>
     <t>Product B</t>
+  </si>
+  <si>
+    <t>Budgets</t>
+  </si>
+  <si>
+    <t>&lt;=</t>
   </si>
 </sst>
 </file>
@@ -484,17 +490,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01A31F51-2B2E-4C53-AA7A-3F44F24928D9}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.76171875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.5">
       <c r="B1" t="s">
         <v>4</v>
       </c>
@@ -504,15 +512,18 @@
       <c r="D1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -527,7 +538,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -544,7 +555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -555,7 +566,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -566,7 +577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -577,7 +588,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -593,8 +604,14 @@
         <f>SUM(B10:C10)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -610,8 +627,14 @@
         <f>SUM(B11:C11)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -627,8 +650,14 @@
         <f>SUM(B12:C12)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A14" s="1" t="s">
         <v>7</v>
       </c>
@@ -645,7 +674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A15" s="1" t="s">
         <v>8</v>
       </c>
@@ -674,7 +703,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -686,7 +715,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
